--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,12 +921,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -976,20 +976,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:TestTerm</t>
+          <t>nicest-2-subjects:10000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TestTerm</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Some test term</t>
-        </is>
-      </c>
+          <t>test subject</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>This is a subject term used for setting up sheet2rdf workflow.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1006,6 +1006,35 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>climate</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,19 +754,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0001-8497-1661</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -787,17 +783,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -820,17 +816,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -853,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -863,7 +859,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -886,11 +882,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -911,59 +915,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -976,27 +940,59 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>test subject</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>This is a subject term used for setting up sheet2rdf workflow.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1009,15 +1005,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:10001</t>
+          <t>nicest-2-subjects:10000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>climate</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>oceanography</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>This is a subject term used for setting up sheet2rdf workflow.</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1035,6 +1035,350 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>numerical modelling</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10003</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>observations</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10004</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>meteorology</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10005</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>timeseries</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>hydrology</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10007</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>atmosphere</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10008</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sea ice</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>to be reviewed</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10009</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cryosphere</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10010</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10011</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10012</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,11 +1013,7 @@
           <t>oceanography</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>This is a subject term used for setting up sheet2rdf workflow.</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1283,7 +1279,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cryosphere</t>
+          <t>land ice</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1310,7 +1306,11 @@
           <t>nicest-2-subjects:10010</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cryosphere</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1335,7 +1335,11 @@
           <t>nicest-2-subjects:10011</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>plant ecology</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1360,7 +1364,11 @@
           <t>nicest-2-subjects:10012</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ocean ecology</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1379,6 +1387,271 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10013</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>biogeochemistry</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10014</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>chemistry</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10015</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>geospatial domain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10016</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10017</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bioprospecting</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10018</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10019</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10020</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>aerosols</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:10021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Earth System Modelling</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ESM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
